--- a/2-Merge-Excel-Files-Real-Life/summary.xlsx
+++ b/2-Merge-Excel-Files-Real-Life/summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Desktop\Automate_Excel\2-Merge-Excel-Files-Real-Life\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Documents\YT_Tutorials\01_Projects\66_Automate_Excel_Reporting\YOUTUBE_UPLOAD_FILES\2-Merge-Excel-Files-Real-Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BE44849-6047-4C24-9877-D5680E37BCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0615A3BC-F2C1-4A5A-AACF-12A7FE877EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44460" yWindow="1185" windowWidth="11850" windowHeight="14250" xr2:uid="{A69C9D69-C50B-424E-A1A2-2132DCE40B6E}"/>
+    <workbookView xWindow="4428" yWindow="2520" windowWidth="11064" windowHeight="8772" xr2:uid="{A1DE5698-49BA-45A3-BAEE-090BD26E4898}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -262,9 +262,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -336,7 +333,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E081-41BF-A75C-BA5819F6E79E}"/>
+              <c16:uniqueId val="{00000007-5575-459A-9B69-2D650E5C1C19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -350,11 +347,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="525766904"/>
-        <c:axId val="525770512"/>
+        <c:axId val="523315776"/>
+        <c:axId val="523315448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="525766904"/>
+        <c:axId val="523315776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,7 +361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525770512"/>
+        <c:crossAx val="523315448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -372,7 +369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525770512"/>
+        <c:axId val="523315448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -383,7 +380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525766904"/>
+        <c:crossAx val="523315776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -418,20 +415,20 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>330835</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12065</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A14295-F1F1-4F5F-BC61-B2BE2511A074}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F7EAFA-2E94-42A4-B977-707EAE0590E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -454,20 +451,20 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>266065</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Sales">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A03FEF-E629-41FB-9A4A-B92B0BD629BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF736DC-D572-48A4-87D5-A19E3A94D97B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -798,26 +795,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B24CE5A-3DFF-4629-B22C-99ABAC06CCBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C6C643-3137-4D82-863E-B37A7E907E59}">
   <dimension ref="A1:N526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A422" sqref="A422:K526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
